--- a/data/trans_bre/POLIPATOLOGIA_5-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_5-Edad-trans_bre.xlsx
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,7</t>
+          <t>-0,43; 0,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,09</t>
+          <t>0,49; 5,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,01</t>
+          <t>0,74; 3,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,36</t>
+          <t>0,17; 2,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,36</t>
+          <t>0,4; 2,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,78</t>
+          <t>0,29; 3,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,5; —</t>
+          <t>-8,19; —</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,42</t>
+          <t>-0,09; 2,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,33</t>
+          <t>1,47; 4,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,37</t>
+          <t>0,9; 3,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,0</t>
+          <t>-1,1; 3,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 687,85</t>
+          <t>-20,51; 867,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,34; 2840,22</t>
+          <t>138,05; 2870,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,51; —</t>
+          <t>52,09; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 138,48</t>
+          <t>-24,94; 149,81</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,36</t>
+          <t>0,81; 5,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,17</t>
+          <t>2,16; 6,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,86</t>
+          <t>2,07; 6,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 13,03</t>
+          <t>5,24; 13,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 423,39</t>
+          <t>18,9; 503,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,42; 547,54</t>
+          <t>52,82; 545,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,58; 394,2</t>
+          <t>54,62; 439,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>68,52; 504,67</t>
+          <t>73,88; 528,12</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 8,03</t>
+          <t>0,72; 8,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 15,47</t>
+          <t>7,36; 15,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,57; 14,25</t>
+          <t>6,51; 15,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,33; 11,39</t>
+          <t>4,88; 11,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 178,61</t>
+          <t>7,74; 188,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>126,12; 538,21</t>
+          <t>127,13; 568,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,77; 386,88</t>
+          <t>94,09; 424,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,86; 122,33</t>
+          <t>36,98; 124,85</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 10,31</t>
+          <t>-0,58; 9,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 12,04</t>
+          <t>-0,41; 11,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,33; 20,63</t>
+          <t>9,51; 20,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,27; 69,35</t>
+          <t>12,12; 66,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 106,9</t>
+          <t>-5,94; 94,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 108,4</t>
+          <t>-0,78; 110,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>81,76; 310,36</t>
+          <t>89,07; 326,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>76,18; 547,35</t>
+          <t>77,94; 510,94</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 12,2</t>
+          <t>-1,16; 12,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,02; 22,31</t>
+          <t>7,95; 22,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 16,43</t>
+          <t>3,13; 16,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,86; 19,62</t>
+          <t>8,6; 20,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 91,24</t>
+          <t>-7,3; 97,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,54; 137,1</t>
+          <t>31,14; 134,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,23; 109,97</t>
+          <t>12,18; 107,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,48; 65,42</t>
+          <t>23,05; 67,64</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,42</t>
+          <t>2,26; 4,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,83; 7,36</t>
+          <t>4,85; 7,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,56</t>
+          <t>5,12; 7,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,5; 27,08</t>
+          <t>7,47; 27,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>56,27; 145,6</t>
+          <t>59,86; 150,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>110,21; 221,93</t>
+          <t>110,47; 214,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>128,79; 250,31</t>
+          <t>127,29; 242,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>88,81; 399,21</t>
+          <t>86,67; 371,67</t>
         </is>
       </c>
     </row>
